--- a/Code/Results/Cases/Case_8_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.68919273225829</v>
+        <v>12.77694119435478</v>
       </c>
       <c r="C2">
-        <v>10.53684286251117</v>
+        <v>11.2656430805976</v>
       </c>
       <c r="D2">
-        <v>3.67230531050364</v>
+        <v>4.476028931492277</v>
       </c>
       <c r="E2">
-        <v>7.391798516493374</v>
+        <v>8.116845873878804</v>
       </c>
       <c r="F2">
-        <v>34.58717360345897</v>
+        <v>31.76314889813176</v>
       </c>
       <c r="G2">
-        <v>2.139715624119822</v>
+        <v>8.583695241375693</v>
       </c>
       <c r="H2">
-        <v>3.439152047731496</v>
+        <v>2.973115962142365</v>
       </c>
       <c r="I2">
-        <v>3.988824438747294</v>
+        <v>3.419549794998906</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>22.21664120753954</v>
+        <v>19.79886389320426</v>
       </c>
       <c r="L2">
-        <v>5.924369910166125</v>
+        <v>15.81241833449172</v>
       </c>
       <c r="M2">
-        <v>13.02473209720352</v>
+        <v>13.59440204103585</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.129442027447867</v>
       </c>
       <c r="O2">
-        <v>12.53468274363951</v>
+        <v>12.55212981719472</v>
       </c>
       <c r="P2">
-        <v>15.76420911283854</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.44449649623682</v>
+      </c>
+      <c r="R2">
+        <v>14.74140094129868</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.86373239635965</v>
+        <v>11.97096148739696</v>
       </c>
       <c r="C3">
-        <v>9.938822309827982</v>
+        <v>10.54910450026544</v>
       </c>
       <c r="D3">
-        <v>3.476234645064531</v>
+        <v>4.273682029294346</v>
       </c>
       <c r="E3">
-        <v>7.045852165330812</v>
+        <v>7.803314207915404</v>
       </c>
       <c r="F3">
-        <v>33.69168951675772</v>
+        <v>30.95133753344605</v>
       </c>
       <c r="G3">
-        <v>2.144976006351696</v>
+        <v>9.233774409649016</v>
       </c>
       <c r="H3">
-        <v>3.702933042757863</v>
+        <v>3.199127491817641</v>
       </c>
       <c r="I3">
-        <v>4.195196688858795</v>
+        <v>3.578539470895683</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>21.90654644653401</v>
+        <v>19.56822279891871</v>
       </c>
       <c r="L3">
-        <v>5.777484076421237</v>
+        <v>15.77086409256228</v>
       </c>
       <c r="M3">
-        <v>12.33072642460829</v>
+        <v>13.3049183472314</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.007589672640128</v>
       </c>
       <c r="O3">
-        <v>11.98760428911557</v>
+        <v>11.83982332566714</v>
       </c>
       <c r="P3">
-        <v>15.83410872185674</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.89254742825035</v>
+      </c>
+      <c r="R3">
+        <v>14.82756952416544</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.32904185318928</v>
+        <v>11.46470381388141</v>
       </c>
       <c r="C4">
-        <v>9.561555261711876</v>
+        <v>10.09117255819493</v>
       </c>
       <c r="D4">
-        <v>3.351859363915243</v>
+        <v>4.146998366821202</v>
       </c>
       <c r="E4">
-        <v>6.825155628394796</v>
+        <v>7.604725324135702</v>
       </c>
       <c r="F4">
-        <v>33.13454361069389</v>
+        <v>30.44213374420473</v>
       </c>
       <c r="G4">
-        <v>2.148311258794417</v>
+        <v>9.646430484895713</v>
       </c>
       <c r="H4">
-        <v>3.87056620472017</v>
+        <v>3.34297993119269</v>
       </c>
       <c r="I4">
-        <v>4.32684603449654</v>
+        <v>3.68050224977264</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.71514700497244</v>
+        <v>19.42354311864162</v>
       </c>
       <c r="L4">
-        <v>5.684412237436698</v>
+        <v>15.73955539292485</v>
       </c>
       <c r="M4">
-        <v>11.88709542134808</v>
+        <v>13.13938870363874</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.930550702685029</v>
       </c>
       <c r="O4">
-        <v>11.64029947446798</v>
+        <v>11.38066802611184</v>
       </c>
       <c r="P4">
-        <v>15.87739590632702</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.54123057747722</v>
+      </c>
+      <c r="R4">
+        <v>14.88029072262306</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.09747113528228</v>
+        <v>11.24449728944236</v>
       </c>
       <c r="C5">
-        <v>9.412104201404754</v>
+        <v>9.906542321736389</v>
       </c>
       <c r="D5">
-        <v>3.303820387246389</v>
+        <v>4.098042575500735</v>
       </c>
       <c r="E5">
-        <v>6.734463212358414</v>
+        <v>7.523513898374831</v>
       </c>
       <c r="F5">
-        <v>32.89225996401419</v>
+        <v>30.21900797335036</v>
       </c>
       <c r="G5">
-        <v>2.149707549388517</v>
+        <v>9.819299663639134</v>
       </c>
       <c r="H5">
-        <v>3.940724313465028</v>
+        <v>3.403216247803266</v>
       </c>
       <c r="I5">
-        <v>4.384298459387979</v>
+        <v>3.72618981021445</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.62659557658019</v>
+        <v>19.35415300147224</v>
       </c>
       <c r="L5">
-        <v>5.645357582650582</v>
+        <v>15.71703627165447</v>
       </c>
       <c r="M5">
-        <v>11.6999133919292</v>
+        <v>13.06884782850068</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.89825317960606</v>
       </c>
       <c r="O5">
-        <v>11.49557198274483</v>
+        <v>11.18605599666581</v>
       </c>
       <c r="P5">
-        <v>15.89178677293914</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.39462783665127</v>
+      </c>
+      <c r="R5">
+        <v>14.89889168661281</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.05031045876691</v>
+        <v>11.19948281930704</v>
       </c>
       <c r="C6">
-        <v>9.395304497402973</v>
+        <v>9.883423781663305</v>
       </c>
       <c r="D6">
-        <v>3.300207665334841</v>
+        <v>4.093811094104357</v>
       </c>
       <c r="E6">
-        <v>6.720852323076222</v>
+        <v>7.511383447178302</v>
       </c>
       <c r="F6">
-        <v>32.83525424589321</v>
+        <v>30.16577315624049</v>
       </c>
       <c r="G6">
-        <v>2.149953390866151</v>
+        <v>9.849746909173007</v>
       </c>
       <c r="H6">
-        <v>3.952944409028064</v>
+        <v>3.41368714049201</v>
       </c>
       <c r="I6">
-        <v>4.397153017525464</v>
+        <v>3.737734790263743</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.59922683993269</v>
+        <v>19.33074830492492</v>
       </c>
       <c r="L6">
-        <v>5.63832533192135</v>
+        <v>15.70308360427717</v>
       </c>
       <c r="M6">
-        <v>11.66592446462912</v>
+        <v>13.0495506919223</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.892423436648056</v>
       </c>
       <c r="O6">
-        <v>11.47078909364503</v>
+        <v>11.15080131188116</v>
       </c>
       <c r="P6">
-        <v>15.89010145292942</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.36953835395914</v>
+      </c>
+      <c r="R6">
+        <v>14.89851185364744</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.30377264564277</v>
+        <v>11.42305507272707</v>
       </c>
       <c r="C7">
-        <v>9.581361757517575</v>
+        <v>10.0610625149587</v>
       </c>
       <c r="D7">
-        <v>3.363051500054965</v>
+        <v>4.178455135949457</v>
       </c>
       <c r="E7">
-        <v>6.828160399115923</v>
+        <v>7.61671649552694</v>
       </c>
       <c r="F7">
-        <v>33.08613818054603</v>
+        <v>30.31203191935538</v>
       </c>
       <c r="G7">
-        <v>2.148363227494814</v>
+        <v>9.700322815208736</v>
       </c>
       <c r="H7">
-        <v>3.872807185423541</v>
+        <v>3.347062792998241</v>
       </c>
       <c r="I7">
-        <v>4.336212343210575</v>
+        <v>3.693644193577919</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.67957518464681</v>
+        <v>19.34415539656696</v>
       </c>
       <c r="L7">
-        <v>5.682528503071695</v>
+        <v>15.67311966522385</v>
       </c>
       <c r="M7">
-        <v>11.87745470484668</v>
+        <v>13.08569469335944</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.927237157845653</v>
       </c>
       <c r="O7">
-        <v>11.63676341593176</v>
+        <v>11.34422558182902</v>
       </c>
       <c r="P7">
-        <v>15.86649764190574</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.52826434146223</v>
+      </c>
+      <c r="R7">
+        <v>14.8558850392498</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.38311933147364</v>
+        <v>12.42323521986861</v>
       </c>
       <c r="C8">
-        <v>10.35969662647032</v>
+        <v>10.89846701897724</v>
       </c>
       <c r="D8">
-        <v>3.620189269393969</v>
+        <v>4.488297741193525</v>
       </c>
       <c r="E8">
-        <v>7.279543458287188</v>
+        <v>8.044388458204301</v>
       </c>
       <c r="F8">
-        <v>34.22233489587299</v>
+        <v>31.16262458798039</v>
       </c>
       <c r="G8">
-        <v>2.141549909350466</v>
+        <v>9.023274955188242</v>
       </c>
       <c r="H8">
-        <v>3.530595801789763</v>
+        <v>3.05838504907159</v>
       </c>
       <c r="I8">
-        <v>4.069942751187856</v>
+        <v>3.493702857730503</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.06536850476045</v>
+        <v>19.52905151665068</v>
       </c>
       <c r="L8">
-        <v>5.872606509459707</v>
+        <v>15.6448488095225</v>
       </c>
       <c r="M8">
-        <v>12.78028088920754</v>
+        <v>13.35633190763946</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.081022991654728</v>
       </c>
       <c r="O8">
-        <v>12.34648450850731</v>
+        <v>12.21929705244352</v>
       </c>
       <c r="P8">
-        <v>15.77379401508905</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.22508264547929</v>
+      </c>
+      <c r="R8">
+        <v>14.71041295481543</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.31113657371506</v>
+        <v>14.30062975130313</v>
       </c>
       <c r="C9">
-        <v>11.76548406504093</v>
+        <v>12.53895999163806</v>
       </c>
       <c r="D9">
-        <v>4.072410854487591</v>
+        <v>4.976124899985153</v>
       </c>
       <c r="E9">
-        <v>8.090533829893639</v>
+        <v>8.791519692929441</v>
       </c>
       <c r="F9">
-        <v>36.4598405448379</v>
+        <v>33.11921408710607</v>
       </c>
       <c r="G9">
-        <v>2.128943384677235</v>
+        <v>7.534515156506679</v>
       </c>
       <c r="H9">
-        <v>2.901111906480225</v>
+        <v>2.522017889885065</v>
       </c>
       <c r="I9">
-        <v>3.571930536772444</v>
+        <v>3.110693098687533</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.87194114764445</v>
+        <v>20.09094595391476</v>
       </c>
       <c r="L9">
-        <v>6.224374658788592</v>
+        <v>15.73022393017925</v>
       </c>
       <c r="M9">
-        <v>14.41741995543817</v>
+        <v>14.13031182185819</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.372732999046102</v>
       </c>
       <c r="O9">
-        <v>13.64493153634166</v>
+        <v>13.88568279535191</v>
       </c>
       <c r="P9">
-        <v>15.61436080819086</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.52489494572997</v>
+      </c>
+      <c r="R9">
+        <v>14.49425430346573</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.54847045354311</v>
+        <v>15.41702105301147</v>
       </c>
       <c r="C10">
-        <v>12.68092474798327</v>
+        <v>13.36335539306893</v>
       </c>
       <c r="D10">
-        <v>4.334841441392449</v>
+        <v>5.369215475274899</v>
       </c>
       <c r="E10">
-        <v>8.480847453732961</v>
+        <v>9.190534160239896</v>
       </c>
       <c r="F10">
-        <v>37.78347153068937</v>
+        <v>33.82483325168803</v>
       </c>
       <c r="G10">
-        <v>2.120348226374313</v>
+        <v>7.385332777700975</v>
       </c>
       <c r="H10">
-        <v>2.49716871995994</v>
+        <v>2.194942328651487</v>
       </c>
       <c r="I10">
-        <v>3.241281654314931</v>
+        <v>2.872760768289122</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.31968443051335</v>
+        <v>20.13052951846533</v>
       </c>
       <c r="L10">
-        <v>6.392803093392131</v>
+        <v>15.50174180540565</v>
       </c>
       <c r="M10">
-        <v>15.48054060835016</v>
+        <v>14.46320556914858</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.495033985387731</v>
       </c>
       <c r="O10">
-        <v>14.4160654686481</v>
+        <v>14.93370098812565</v>
       </c>
       <c r="P10">
-        <v>15.44792352190847</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.24665051130113</v>
+      </c>
+      <c r="R10">
+        <v>14.2200048409422</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.79090495870016</v>
+        <v>15.5564050747583</v>
       </c>
       <c r="C11">
-        <v>12.51900912077465</v>
+        <v>12.71243701423776</v>
       </c>
       <c r="D11">
-        <v>4.009124945051667</v>
+        <v>5.241142995569368</v>
       </c>
       <c r="E11">
-        <v>7.308909175499554</v>
+        <v>8.092899911916184</v>
       </c>
       <c r="F11">
-        <v>36.1798643973471</v>
+        <v>31.43426981634846</v>
       </c>
       <c r="G11">
-        <v>2.118180163887255</v>
+        <v>10.04701714831847</v>
       </c>
       <c r="H11">
-        <v>3.282749822053812</v>
+        <v>3.085416357997088</v>
       </c>
       <c r="I11">
-        <v>3.175456636814797</v>
+        <v>2.852237559724326</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.43470745448823</v>
+        <v>18.8573324521221</v>
       </c>
       <c r="L11">
-        <v>5.889662817158281</v>
+        <v>14.46002723251465</v>
       </c>
       <c r="M11">
-        <v>15.57108864509623</v>
+        <v>13.60165280814344</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.985506336300358</v>
       </c>
       <c r="O11">
-        <v>13.73997479832234</v>
+        <v>14.83790415680739</v>
       </c>
       <c r="P11">
-        <v>14.9766918731798</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.47220098924075</v>
+      </c>
+      <c r="R11">
+        <v>13.72781930108519</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.76730911976185</v>
+        <v>15.51858993097183</v>
       </c>
       <c r="C12">
-        <v>12.15866972208042</v>
+        <v>12.10152852982623</v>
       </c>
       <c r="D12">
-        <v>3.667123397101087</v>
+        <v>4.969410533599585</v>
       </c>
       <c r="E12">
-        <v>6.35517603152601</v>
+        <v>7.14561078951059</v>
       </c>
       <c r="F12">
-        <v>34.59229345679949</v>
+        <v>29.58535219327749</v>
       </c>
       <c r="G12">
-        <v>2.117979358928304</v>
+        <v>11.62998269298707</v>
       </c>
       <c r="H12">
-        <v>4.527999215984588</v>
+        <v>4.388605000733635</v>
       </c>
       <c r="I12">
-        <v>3.168556080628174</v>
+        <v>2.854296778142158</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.64021556449757</v>
+        <v>17.98531207803187</v>
       </c>
       <c r="L12">
-        <v>5.541476340091662</v>
+        <v>13.79746504513126</v>
       </c>
       <c r="M12">
-        <v>15.43282527489432</v>
+        <v>12.9548095518471</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.647195002848529</v>
       </c>
       <c r="O12">
-        <v>13.00225593433631</v>
+        <v>14.62334553136705</v>
       </c>
       <c r="P12">
-        <v>14.65255435335418</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.69080401063626</v>
+      </c>
+      <c r="R12">
+        <v>13.47486856209635</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.51035985622238</v>
+        <v>15.34999094111122</v>
       </c>
       <c r="C13">
-        <v>11.63685097218253</v>
+        <v>11.56043876594751</v>
       </c>
       <c r="D13">
-        <v>3.298469506628089</v>
+        <v>4.536715752635464</v>
       </c>
       <c r="E13">
-        <v>5.560538688647205</v>
+        <v>6.293573571365918</v>
       </c>
       <c r="F13">
-        <v>32.8356289617878</v>
+        <v>28.1189139530035</v>
       </c>
       <c r="G13">
-        <v>2.119327692335476</v>
+        <v>11.35450518510553</v>
       </c>
       <c r="H13">
-        <v>5.887902904470393</v>
+        <v>5.771169173650645</v>
       </c>
       <c r="I13">
-        <v>3.220953018115503</v>
+        <v>2.889195633895499</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.81225010439436</v>
+        <v>17.39723120290214</v>
       </c>
       <c r="L13">
-        <v>5.305505917563252</v>
+        <v>13.38702459448535</v>
       </c>
       <c r="M13">
-        <v>15.0967239389872</v>
+        <v>12.46964368069311</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.434996174769368</v>
       </c>
       <c r="O13">
-        <v>12.1542926065549</v>
+        <v>14.33985647193864</v>
       </c>
       <c r="P13">
-        <v>14.4073207204129</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.8555270208431</v>
+      </c>
+      <c r="R13">
+        <v>13.36684546670077</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.21628992324703</v>
+        <v>15.16436585476371</v>
       </c>
       <c r="C14">
-        <v>11.19583942420426</v>
+        <v>11.20514972984591</v>
       </c>
       <c r="D14">
-        <v>3.029231673494468</v>
+        <v>4.16687207730558</v>
       </c>
       <c r="E14">
-        <v>5.14641593134852</v>
+        <v>5.815852824500888</v>
       </c>
       <c r="F14">
-        <v>31.51233030442176</v>
+        <v>27.23110446394667</v>
       </c>
       <c r="G14">
-        <v>2.120970900066957</v>
+        <v>10.37659897909413</v>
       </c>
       <c r="H14">
-        <v>6.872264900044646</v>
+        <v>6.761823006599417</v>
       </c>
       <c r="I14">
-        <v>3.287013030879571</v>
+        <v>2.93230011540334</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.21044152704533</v>
+        <v>17.09214506416381</v>
       </c>
       <c r="L14">
-        <v>5.216904441369931</v>
+        <v>13.19275743185164</v>
       </c>
       <c r="M14">
-        <v>14.76574406051441</v>
+        <v>12.19012985840235</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.36694413726661</v>
       </c>
       <c r="O14">
-        <v>11.50341525849636</v>
+        <v>14.10233842988398</v>
       </c>
       <c r="P14">
-        <v>14.27398242269053</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.23702110331944</v>
+      </c>
+      <c r="R14">
+        <v>13.34342745120978</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.08694168043782</v>
+        <v>15.08145607734661</v>
       </c>
       <c r="C15">
-        <v>11.05968572078769</v>
+        <v>11.13121907360153</v>
       </c>
       <c r="D15">
-        <v>2.960136569111677</v>
+        <v>4.050841016758295</v>
       </c>
       <c r="E15">
-        <v>5.064346293393951</v>
+        <v>5.717310813473894</v>
       </c>
       <c r="F15">
-        <v>31.14095681723978</v>
+        <v>27.0638180153905</v>
       </c>
       <c r="G15">
-        <v>2.121730009775578</v>
+        <v>9.835610687264181</v>
       </c>
       <c r="H15">
-        <v>7.105886701076979</v>
+        <v>6.99421098340121</v>
       </c>
       <c r="I15">
-        <v>3.320459591518536</v>
+        <v>2.955697778018388</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.0464036007753</v>
+        <v>17.0549297324417</v>
       </c>
       <c r="L15">
-        <v>5.203030679299017</v>
+        <v>13.17903144110361</v>
       </c>
       <c r="M15">
-        <v>14.63991717160801</v>
+        <v>12.14094128794711</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.360326051665519</v>
       </c>
       <c r="O15">
-        <v>11.32051819491651</v>
+        <v>14.02261329801483</v>
       </c>
       <c r="P15">
-        <v>14.25306044190205</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.07195684375048</v>
+      </c>
+      <c r="R15">
+        <v>13.35550050168732</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.60068231132599</v>
+        <v>14.75464835571534</v>
       </c>
       <c r="C16">
-        <v>10.75420190565568</v>
+        <v>11.17077278882992</v>
       </c>
       <c r="D16">
-        <v>2.905702897628749</v>
+        <v>3.814008050683337</v>
       </c>
       <c r="E16">
-        <v>5.009120288627714</v>
+        <v>5.673809834979402</v>
       </c>
       <c r="F16">
-        <v>30.8526313790661</v>
+        <v>27.58337585480018</v>
       </c>
       <c r="G16">
-        <v>2.125132141648059</v>
+        <v>7.774701913048493</v>
       </c>
       <c r="H16">
-        <v>6.948404046000737</v>
+        <v>6.810276444717947</v>
       </c>
       <c r="I16">
-        <v>3.455332446454272</v>
+        <v>3.041811925106007</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.99116239550942</v>
+        <v>17.44762075291442</v>
       </c>
       <c r="L16">
-        <v>5.168185504031015</v>
+        <v>13.53478994635315</v>
       </c>
       <c r="M16">
-        <v>14.24104903158512</v>
+        <v>12.3492932404636</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.349902523889218</v>
       </c>
       <c r="O16">
-        <v>11.12451513950223</v>
+        <v>13.80608621718677</v>
       </c>
       <c r="P16">
-        <v>14.36930160302519</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.95870790069938</v>
+      </c>
+      <c r="R16">
+        <v>13.5290076305648</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.38367965910857</v>
+        <v>14.58011710242756</v>
       </c>
       <c r="C17">
-        <v>10.76507295591558</v>
+        <v>11.36470719333939</v>
       </c>
       <c r="D17">
-        <v>3.012188892214895</v>
+        <v>3.853521821726819</v>
       </c>
       <c r="E17">
-        <v>5.159590152044</v>
+        <v>5.850736037260041</v>
       </c>
       <c r="F17">
-        <v>31.34690027301522</v>
+        <v>28.37387907700223</v>
       </c>
       <c r="G17">
-        <v>2.126881580841164</v>
+        <v>7.319954726676616</v>
       </c>
       <c r="H17">
-        <v>6.282969064157348</v>
+        <v>6.116203124597336</v>
       </c>
       <c r="I17">
-        <v>3.524762309051105</v>
+        <v>3.087991430750149</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.2693966643975</v>
+        <v>17.8688165418632</v>
       </c>
       <c r="L17">
-        <v>5.174776695438479</v>
+        <v>13.89156644045091</v>
       </c>
       <c r="M17">
-        <v>14.11434529654334</v>
+        <v>12.61661387474077</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.365123594104051</v>
       </c>
       <c r="O17">
-        <v>11.33036634317495</v>
+        <v>13.7371117514484</v>
       </c>
       <c r="P17">
-        <v>14.52628171881367</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.20088552520207</v>
+      </c>
+      <c r="R17">
+        <v>13.68144949807536</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.39546662808912</v>
+        <v>14.56615103160378</v>
       </c>
       <c r="C18">
-        <v>11.03493790584896</v>
+        <v>11.75447546941559</v>
       </c>
       <c r="D18">
-        <v>3.268463665573656</v>
+        <v>4.094066585205428</v>
       </c>
       <c r="E18">
-        <v>5.665922345932278</v>
+        <v>6.368076840097217</v>
       </c>
       <c r="F18">
-        <v>32.60568112783267</v>
+        <v>29.67376614974457</v>
       </c>
       <c r="G18">
-        <v>2.127307339606862</v>
+        <v>7.191308250690231</v>
       </c>
       <c r="H18">
-        <v>5.149582843879252</v>
+        <v>4.941437417003586</v>
       </c>
       <c r="I18">
-        <v>3.533798683273013</v>
+        <v>3.088470396111434</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.8955102312162</v>
+        <v>18.47287473901643</v>
       </c>
       <c r="L18">
-        <v>5.295736440759997</v>
+        <v>14.37005972136051</v>
       </c>
       <c r="M18">
-        <v>14.21566036838367</v>
+        <v>13.04925719716092</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.481001987247548</v>
       </c>
       <c r="O18">
-        <v>11.9092400989897</v>
+        <v>13.84119946130967</v>
       </c>
       <c r="P18">
-        <v>14.75659231372639</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.79693475726396</v>
+      </c>
+      <c r="R18">
+        <v>13.86321330854146</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.55586620315921</v>
+        <v>14.664548088855</v>
       </c>
       <c r="C19">
-        <v>11.51801554716717</v>
+        <v>12.32969103133956</v>
       </c>
       <c r="D19">
-        <v>3.646200912975355</v>
+        <v>4.483613640902299</v>
       </c>
       <c r="E19">
-        <v>6.58986938645991</v>
+        <v>7.279808484386084</v>
       </c>
       <c r="F19">
-        <v>34.31442740463974</v>
+        <v>31.28077477072096</v>
       </c>
       <c r="G19">
-        <v>2.126598018073558</v>
+        <v>7.069100604660624</v>
       </c>
       <c r="H19">
-        <v>3.863595111313133</v>
+        <v>3.594047662472644</v>
       </c>
       <c r="I19">
-        <v>3.508740824011185</v>
+        <v>3.071150447492305</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.70790342951566</v>
+        <v>19.16983647303658</v>
       </c>
       <c r="L19">
-        <v>5.601950176256603</v>
+        <v>14.9031574192183</v>
       </c>
       <c r="M19">
-        <v>14.47790397045832</v>
+        <v>13.57450727167347</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.769355487872852</v>
       </c>
       <c r="O19">
-        <v>12.7383890819742</v>
+        <v>14.08451499419807</v>
       </c>
       <c r="P19">
-        <v>15.03515371317616</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.63293495556337</v>
+      </c>
+      <c r="R19">
+        <v>14.06660135974468</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.17695367063373</v>
+        <v>15.12984010405264</v>
       </c>
       <c r="C20">
-        <v>12.49424661206558</v>
+        <v>13.33315311743827</v>
       </c>
       <c r="D20">
-        <v>4.29396370771016</v>
+        <v>5.227476988254772</v>
       </c>
       <c r="E20">
-        <v>8.383288432075314</v>
+        <v>9.06184185139794</v>
       </c>
       <c r="F20">
-        <v>37.30398053816531</v>
+        <v>33.77681892663218</v>
       </c>
       <c r="G20">
-        <v>2.122674875640033</v>
+        <v>6.884208084005699</v>
       </c>
       <c r="H20">
-        <v>2.605228682808475</v>
+        <v>2.275167381832718</v>
       </c>
       <c r="I20">
-        <v>3.356360175586087</v>
+        <v>2.963288129277116</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.09817264180187</v>
+        <v>20.17628150637304</v>
       </c>
       <c r="L20">
-        <v>6.342231220914766</v>
+        <v>15.6027712718802</v>
       </c>
       <c r="M20">
-        <v>15.18761326691712</v>
+        <v>14.41752550995395</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.462188806042588</v>
       </c>
       <c r="O20">
-        <v>14.20784869709121</v>
+        <v>14.72205755981573</v>
       </c>
       <c r="P20">
-        <v>15.45684494879659</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.07998238558365</v>
+      </c>
+      <c r="R20">
+        <v>14.31255466117957</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.14441708000618</v>
+        <v>15.74459759609013</v>
       </c>
       <c r="C21">
-        <v>13.27050325749714</v>
+        <v>13.37538632528805</v>
       </c>
       <c r="D21">
-        <v>4.563995145379383</v>
+        <v>5.940093796611747</v>
       </c>
       <c r="E21">
-        <v>8.923445067799481</v>
+        <v>9.760991302646486</v>
       </c>
       <c r="F21">
-        <v>38.7149313154506</v>
+        <v>33.32809838554778</v>
       </c>
       <c r="G21">
-        <v>2.115886072492298</v>
+        <v>11.30106690641578</v>
       </c>
       <c r="H21">
-        <v>2.252061048114955</v>
+        <v>2.0143959292238</v>
       </c>
       <c r="I21">
-        <v>3.092612560911211</v>
+        <v>2.804848056517934</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.64865533537431</v>
+        <v>19.60312488374601</v>
       </c>
       <c r="L21">
-        <v>6.584027370385806</v>
+        <v>14.99317887545862</v>
       </c>
       <c r="M21">
-        <v>16.04270618591872</v>
+        <v>14.20493422742583</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.639538050959056</v>
       </c>
       <c r="O21">
-        <v>14.96186172346548</v>
+        <v>15.17608618270975</v>
       </c>
       <c r="P21">
-        <v>15.40803821261884</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.64966185672729</v>
+      </c>
+      <c r="R21">
+        <v>13.92224183618852</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.75577057834951</v>
+        <v>16.11909917243513</v>
       </c>
       <c r="C22">
-        <v>13.71311364853743</v>
+        <v>13.33245605701393</v>
       </c>
       <c r="D22">
-        <v>4.697621884023553</v>
+        <v>6.380459673627824</v>
       </c>
       <c r="E22">
-        <v>9.179190564956393</v>
+        <v>10.13520554348699</v>
       </c>
       <c r="F22">
-        <v>39.54628643055066</v>
+        <v>32.8766158112458</v>
       </c>
       <c r="G22">
-        <v>2.111584659933677</v>
+        <v>15.69772149243597</v>
       </c>
       <c r="H22">
-        <v>2.039709117353175</v>
+        <v>1.860883927778358</v>
       </c>
       <c r="I22">
-        <v>2.91541646133107</v>
+        <v>2.691390562991807</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.98430308914998</v>
+        <v>19.16486086967672</v>
       </c>
       <c r="L22">
-        <v>6.702310025707391</v>
+        <v>14.5632885887179</v>
       </c>
       <c r="M22">
-        <v>16.56854728563861</v>
+        <v>14.01094576512696</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.718017227234342</v>
       </c>
       <c r="O22">
-        <v>15.38280073391498</v>
+        <v>15.42272536591831</v>
       </c>
       <c r="P22">
-        <v>15.36670728392833</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.94214659386635</v>
+      </c>
+      <c r="R22">
+        <v>13.65955908520614</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.45121758307032</v>
+        <v>15.97192898925742</v>
       </c>
       <c r="C23">
-        <v>13.45802939875013</v>
+        <v>13.43003885473295</v>
       </c>
       <c r="D23">
-        <v>4.616144118719324</v>
+        <v>6.08925272741856</v>
       </c>
       <c r="E23">
-        <v>9.039507195633014</v>
+        <v>9.910293774048091</v>
       </c>
       <c r="F23">
-        <v>39.14892184709931</v>
+        <v>33.34536803321158</v>
       </c>
       <c r="G23">
-        <v>2.113841218254992</v>
+        <v>12.55553153846276</v>
       </c>
       <c r="H23">
-        <v>2.151373820906356</v>
+        <v>1.937792638201608</v>
       </c>
       <c r="I23">
-        <v>2.997801808565151</v>
+        <v>2.733635861995717</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.84198360976506</v>
+        <v>19.53621072967727</v>
       </c>
       <c r="L23">
-        <v>6.640763983743748</v>
+        <v>14.88965329524254</v>
       </c>
       <c r="M23">
-        <v>16.29607803909713</v>
+        <v>14.22442484884413</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.680455836769691</v>
       </c>
       <c r="O23">
-        <v>15.16087892027081</v>
+        <v>15.34917836663088</v>
       </c>
       <c r="P23">
-        <v>15.40106072221919</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.8085912969409</v>
+      </c>
+      <c r="R23">
+        <v>13.83633341786513</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.21705239413069</v>
+        <v>15.16364505423798</v>
       </c>
       <c r="C24">
-        <v>12.50580781817867</v>
+        <v>13.36049286604437</v>
       </c>
       <c r="D24">
-        <v>4.315423199281473</v>
+        <v>5.248861240333599</v>
       </c>
       <c r="E24">
-        <v>8.500654244409244</v>
+        <v>9.177002698923367</v>
       </c>
       <c r="F24">
-        <v>37.55039268838487</v>
+        <v>34.01951845431818</v>
       </c>
       <c r="G24">
-        <v>2.122578824883341</v>
+        <v>6.850311893514241</v>
       </c>
       <c r="H24">
-        <v>2.584230152105126</v>
+        <v>2.253891168095244</v>
       </c>
       <c r="I24">
-        <v>3.336679774084363</v>
+        <v>2.939649534014229</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.24262877174908</v>
+        <v>20.30993995303539</v>
       </c>
       <c r="L24">
-        <v>6.400213244512414</v>
+        <v>15.70599758341302</v>
       </c>
       <c r="M24">
-        <v>15.21775563601867</v>
+        <v>14.51681636317582</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.518204573258643</v>
       </c>
       <c r="O24">
-        <v>14.29209122410188</v>
+        <v>14.75232583594532</v>
       </c>
       <c r="P24">
-        <v>15.51295359784364</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.16578396318954</v>
+      </c>
+      <c r="R24">
+        <v>14.3575581476861</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.78001312069986</v>
+        <v>13.80943753051151</v>
       </c>
       <c r="C25">
-        <v>11.42829759618442</v>
+        <v>12.20127607090924</v>
       </c>
       <c r="D25">
-        <v>3.972032580388288</v>
+        <v>4.83644621663338</v>
       </c>
       <c r="E25">
-        <v>7.88520062016392</v>
+        <v>8.589590820183652</v>
       </c>
       <c r="F25">
-        <v>35.78799931815075</v>
+        <v>32.6389550016566</v>
       </c>
       <c r="G25">
-        <v>2.132325077621003</v>
+        <v>7.809337365191935</v>
       </c>
       <c r="H25">
-        <v>3.069041042604969</v>
+        <v>2.661836761734018</v>
       </c>
       <c r="I25">
-        <v>3.718422301970662</v>
+        <v>3.226968361774268</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.5959705308851</v>
+        <v>19.94954200310387</v>
       </c>
       <c r="L25">
-        <v>6.129528328283502</v>
+        <v>15.71802596158212</v>
       </c>
       <c r="M25">
-        <v>13.97958465734571</v>
+        <v>13.91844211748186</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.296073734100366</v>
       </c>
       <c r="O25">
-        <v>13.30204912335388</v>
+        <v>13.46365494392714</v>
       </c>
       <c r="P25">
-        <v>15.63784063818814</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>13.19458925087089</v>
+      </c>
+      <c r="R25">
+        <v>14.55754356989873</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
